--- a/src/predicciones/holt_winters/producto_179.xlsx
+++ b/src/predicciones/holt_winters/producto_179.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,773 +404,1994 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.998262229476351</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44932</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4.991963532821988</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44933</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9870954219871362</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44935</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2.985160890991238</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44937</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.983485685042551</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B7">
+        <v>0.9820324712169104</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B8">
+        <v>5.990879917872446</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B9">
+        <v>1.988278078020292</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B10">
+        <v>4.981979381365928</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B11">
+        <v>0.9771112705310767</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44954</v>
+      </c>
+      <c r="B12">
+        <v>2.975176739535179</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B13">
+        <v>1.973501533586491</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B14">
+        <v>0.9720483197608509</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B15">
+        <v>5.980895766416387</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B16">
+        <v>1.978293926564232</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B17">
+        <v>4.971995229909869</v>
+      </c>
+      <c r="C17">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44967</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.9671271190750172</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44969</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2.965192588079119</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44977</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.963517382130432</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44978</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9620641683047915</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44979</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>5.970911614960327</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44980</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.968309775108172</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44982</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4.962011078453809</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44984</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9571429676189578</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44987</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2.95520843662306</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44988</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.953533230674372</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44990</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9520800168487316</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44992</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>5.960927463504268</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44993</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1.958325623652113</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44997</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>4.95202692699775</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45000</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9471588161628983</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45002</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2.945224285167</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45003</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>1.943549079218312</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45004</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9420958653926721</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45006</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>5.950943312048208</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45007</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>1.948341472196053</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45008</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>4.94204277554169</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45011</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9371746647068389</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45012</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2.93524013371094</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45013</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1.933564927762253</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45015</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9321117139366126</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45018</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5.940959160592149</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45020</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>1.938357320739994</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45022</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>4.932058624085631</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45026</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9271905132507789</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45029</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2.925255982254881</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45030</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>1.923580776306193</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45032</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9221275624805532</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45033</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>5.930975009136089</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45035</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>1.928373169283934</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45036</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4.922074472629571</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45038</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.9172063617947195</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45039</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2.915271830798821</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45041</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>1.913596624850134</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45042</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9121434110244937</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45043</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>5.920990857680029</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45051</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>1.918389017827875</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45056</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>4.912090321173512</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45061</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.90722221033866</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45062</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2.905287679342762</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45063</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>1.903612473394074</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45064</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.9021592595684338</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45068</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>5.91100670622397</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45071</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>1.908404866371815</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45072</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>4.902106169717452</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45073</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.8972380588826006</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45074</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2.895303527886703</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45075</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>1.893628321938015</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45077</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.8921751081123743</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45080</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>5.90102255476791</v>
       </c>
       <c r="C71">
         <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B72">
+        <v>1.898420714915756</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B73">
+        <v>4.892122018261393</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B74">
+        <v>0.8872539074265411</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B75">
+        <v>2.885319376430643</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B76">
+        <v>1.883644170481955</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B77">
+        <v>0.8821909566563149</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B78">
+        <v>5.891038403311851</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B79">
+        <v>1.888436563459696</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B80">
+        <v>4.882137866805333</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B81">
+        <v>0.8772697559704812</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B82">
+        <v>2.875335224974583</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B83">
+        <v>1.873660019025896</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B84">
+        <v>0.8722068052002554</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B85">
+        <v>5.881054251855791</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B86">
+        <v>1.878452412003636</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B87">
+        <v>4.872153715349273</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B88">
+        <v>0.8672856045144217</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B89">
+        <v>2.865351073518524</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B90">
+        <v>1.863675867569836</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B91">
+        <v>0.8622226537441959</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B92">
+        <v>5.871070100399732</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B93">
+        <v>1.868468260547577</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B94">
+        <v>4.862169563893214</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B95">
+        <v>0.8573014530583623</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B96">
+        <v>2.855366922062464</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B97">
+        <v>1.853691716113777</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B98">
+        <v>0.852238502288136</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B99">
+        <v>5.861085948943671</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B100">
+        <v>1.858484109091517</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B101">
+        <v>4.852185412437154</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B102">
+        <v>0.8473173016023028</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B103">
+        <v>2.845382770606405</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B104">
+        <v>1.843707564657717</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B105">
+        <v>0.8422543508320766</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B106">
+        <v>5.851101797487612</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B107">
+        <v>1.848499957635458</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B108">
+        <v>4.842201260981095</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B109">
+        <v>0.8373331501462433</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B110">
+        <v>2.835398619150345</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B111">
+        <v>1.833723413201657</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B112">
+        <v>0.8322701993760171</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B113">
+        <v>5.841117646031552</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B114">
+        <v>1.838515806179398</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B115">
+        <v>4.832217109525035</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B116">
+        <v>0.8273489986901834</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B117">
+        <v>2.825414467694285</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B118">
+        <v>1.823739261745598</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B119">
+        <v>0.8222860479199576</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B120">
+        <v>5.831133494575493</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B121">
+        <v>1.828531654723339</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B122">
+        <v>4.822232958068975</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B123">
+        <v>0.8173648472341239</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B124">
+        <v>2.815430316238226</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B125">
+        <v>1.813755110289538</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B126">
+        <v>0.8123018964638982</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B127">
+        <v>5.821149343119433</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B128">
+        <v>1.818547503267279</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B129">
+        <v>4.812248806612915</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B130">
+        <v>0.8073806957780645</v>
+      </c>
+      <c r="C130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B131">
+        <v>2.805446164782166</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B132">
+        <v>1.803770958833479</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B133">
+        <v>0.8023177450078387</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B134">
+        <v>5.811165191663374</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B135">
+        <v>1.80856335181122</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B136">
+        <v>4.802264655156856</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B137">
+        <v>0.797396544322005</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B138">
+        <v>2.795462013326107</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B139">
+        <v>1.793786807377419</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B140">
+        <v>0.7923335935517788</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B141">
+        <v>5.801181040207315</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B142">
+        <v>1.79857920035516</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B143">
+        <v>4.792280503700797</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B144">
+        <v>0.7874123928659456</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B145">
+        <v>2.785477861870047</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B146">
+        <v>1.78380265592136</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B147">
+        <v>0.7823494420957193</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B148">
+        <v>5.791196888751255</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B149">
+        <v>1.788595048899101</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B150">
+        <v>4.782296352244737</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B151">
+        <v>0.7774282414098856</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B152">
+        <v>2.775493710413988</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B153">
+        <v>1.7738185044653</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B154">
+        <v>0.7723652906396599</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B155">
+        <v>5.781212737295196</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B156">
+        <v>1.778610897443041</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B157">
+        <v>4.772312200788678</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B158">
+        <v>0.7674440899538262</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B159">
+        <v>2.765509558957928</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B160">
+        <v>1.763834353009241</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B161">
+        <v>0.7623811391836004</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B162">
+        <v>5.771228585839136</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B163">
+        <v>1.768626745986981</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B164">
+        <v>4.762328049332618</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B165">
+        <v>0.7574599384977667</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B166">
+        <v>2.755525407501869</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B167">
+        <v>1.753850201553181</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B168">
+        <v>0.7523969877275409</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B169">
+        <v>5.761244434383077</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B170">
+        <v>1.758642594530922</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B171">
+        <v>4.752343897876559</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B172">
+        <v>0.7474757870417073</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B173">
+        <v>2.745541256045809</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B174">
+        <v>1.743866050097122</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B175">
+        <v>0.742412836271481</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B176">
+        <v>5.751260282927017</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B177">
+        <v>1.748658443074862</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B178">
+        <v>4.742359746420499</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B179">
+        <v>0.7374916355856478</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B180">
+        <v>2.735557104589749</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B181">
+        <v>1.733881898641062</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B182">
+        <v>0.7324286848154216</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
